--- a/results/mp/tinybert/dilemma/confidence/42/stop-words-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/42/stop-words-0.2/avg_0.003_scores.xlsx
@@ -43,54 +43,51 @@
     <t>evil</t>
   </si>
   <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
     <t>creepy</t>
   </si>
   <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
     <t>terrifying</t>
   </si>
   <si>
     <t>uncomfortable</t>
   </si>
   <si>
+    <t>addicted</t>
+  </si>
+  <si>
     <t>dangerous</t>
   </si>
   <si>
-    <t>addicted</t>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>wrong</t>
   </si>
   <si>
     <t>hate</t>
   </si>
   <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
     <t>scary</t>
   </si>
   <si>
-    <t>fuck</t>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>seriously</t>
   </si>
   <si>
     <t>shit</t>
   </si>
   <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
     <t>bad</t>
   </si>
   <si>
@@ -106,12 +103,12 @@
     <t>brilliant</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
@@ -125,6 +122,9 @@
   </si>
   <si>
     <t>social</t>
+  </si>
+  <si>
+    <t>…</t>
   </si>
   <si>
     <t>positive</t>
@@ -485,7 +485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -493,7 +493,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
         <v>37</v>
@@ -554,13 +554,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9230769230769231</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -572,19 +572,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K3">
-        <v>0.9444444444444444</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -596,7 +596,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -604,13 +604,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9090909090909091</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -622,10 +622,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K4">
         <v>0.9090909090909091</v>
@@ -654,13 +654,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9038461538461539</v>
+        <v>0.9326923076923077</v>
       </c>
       <c r="C5">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D5">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -672,19 +672,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K5">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="L5">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="M5">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -704,13 +704,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8666666666666667</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C6">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D6">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -722,19 +722,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K6">
-        <v>0.8333333333333334</v>
+        <v>0.84</v>
       </c>
       <c r="L6">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="M6">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -754,13 +754,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8636363636363636</v>
+        <v>0.8939393939393939</v>
       </c>
       <c r="C7">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D7">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -772,19 +772,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K7">
-        <v>0.6666666666666666</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L7">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M7">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -796,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -804,49 +804,49 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C8">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8">
+        <v>0.5862068965517241</v>
+      </c>
+      <c r="L8">
+        <v>17</v>
+      </c>
+      <c r="M8">
+        <v>17</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>12</v>
-      </c>
-      <c r="D8">
-        <v>12</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>3</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K8">
-        <v>0.6206896551724138</v>
-      </c>
-      <c r="L8">
-        <v>18</v>
-      </c>
-      <c r="M8">
-        <v>18</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -854,13 +854,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7368421052631579</v>
+        <v>0.775</v>
       </c>
       <c r="C9">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -872,19 +872,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K9">
-        <v>0.5333333333333333</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L9">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M9">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -904,13 +904,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -922,19 +922,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K10">
-        <v>0.52</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -954,13 +954,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.65</v>
+        <v>0.625</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -972,19 +972,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K11">
-        <v>0.06739526411657559</v>
+        <v>0.06466302367941712</v>
       </c>
       <c r="L11">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M11">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1024</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1004,13 +1004,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6470588235294118</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1022,7 +1022,31 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12">
+        <v>0.005184331797235023</v>
+      </c>
+      <c r="L12">
+        <v>9</v>
+      </c>
+      <c r="M12">
+        <v>9</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1727</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1030,13 +1054,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.625</v>
+        <v>0.55</v>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1048,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1056,13 +1080,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5507246376811594</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="C14">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D14">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1074,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1082,13 +1106,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4782608695652174</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C15">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1100,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1108,13 +1132,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4042553191489361</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="C16">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D16">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1126,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1134,13 +1158,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="C17">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D17">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1152,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1160,13 +1184,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3928571428571428</v>
+        <v>0.3191489361702128</v>
       </c>
       <c r="C18">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D18">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1178,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1186,13 +1210,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3461538461538461</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="C19">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D19">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1204,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1212,13 +1236,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3076923076923077</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="C20">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D20">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1230,32 +1254,6 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>0.1153846153846154</v>
-      </c>
-      <c r="C21">
-        <v>9</v>
-      </c>
-      <c r="D21">
-        <v>9</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
         <v>69</v>
       </c>
     </row>
